--- a/data/entry_log.xlsx
+++ b/data/entry_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45599.42460739664</v>
+        <v>45599.42460739583</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -626,6 +626,37 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45599.44985437016</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>shorts</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>111111111111</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alex: 107031</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/data/entry_log.xlsx
+++ b/data/entry_log.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,192 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45599.42380037037</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>shorts</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>111111111111</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Alex: 107031</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45599.42403748842</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>bigger shorts</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>222222222222</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Alex: 107031</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45599.42412194444</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>shorts</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>111111111111</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Alex: 107031</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45599.42429211806</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>shorts</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>111111111111</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alex: 107031</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45599.42460739583</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>shorts</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>111111111111</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alex: 107031</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45599.44985437016</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>shorts</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>111111111111</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Alex: 107031</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/entry_log.xlsx
+++ b/data/entry_log.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +474,93 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45599.94982475633</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>shorts</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>222222222222</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>alex: 107031</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45599.94997327006</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bigger shorts</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>111111111111</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>alex: 107031</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45599.95006577477</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>shorts</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>222222222222</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>alex: 107031</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/entry_log.xlsx
+++ b/data/entry_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45599.94982475633</v>
+        <v>45599.96035082536</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,17 +484,17 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>222222222222</v>
+        <v>111111111111</v>
       </c>
       <c r="E2" t="n">
         <v>9.99</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>alex: 107031</t>
+          <t>Alex: 107031</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -505,7 +505,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45599.94997327006</v>
+        <v>45599.96047010172</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -513,49 +513,20 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>111111111111</v>
+        <v>222222222222</v>
       </c>
       <c r="E3" t="n">
-        <v>4.55</v>
+        <v>2.99</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>alex: 107031</t>
+          <t>Alex: 107031</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45599.95006577477</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>shorts</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>222222222222</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>alex: 107031</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/data/entry_log.xlsx
+++ b/data/entry_log.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,93 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45599.9687696041</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>shorts</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>111111111111</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Alex: 107031</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45599.96885386145</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>shorts</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>111111111111</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Alex: 107031</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45599.96902118705</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>bigger shorts</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>222222222222</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Alex: 107031</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/entry_log.xlsx
+++ b/data/entry_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45601.95533686933</v>
+        <v>45601.955336875</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -500,6 +500,68 @@
         </is>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45621.82642724535</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Shorts</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111111111111</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>alex: 10838</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45621.82667864192</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>shorts</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>345343245654</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>alex: 10838</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
